--- a/triangle/triangle-all-pos.xlsx
+++ b/triangle/triangle-all-pos.xlsx
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,15 +155,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
   </cols>
   <sheetData>
@@ -239,10 +240,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>153.937822</v>
+        <v>153.331603</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-136.5</v>
+        <v>-136.15</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60</v>
@@ -256,10 +257,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>106.062177</v>
+        <v>106.668395</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-136.5</v>
+        <v>-136.15</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>-60</v>
@@ -276,7 +277,7 @@
         <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-95</v>
+        <v>-95.7</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>180</v>
